--- a/5.GestionDotaciones/DAPRE/Belen de los Andaquies/IngresoInventario/f1.p7.sa_formato_plan_distribucion_v2.xlsx
+++ b/5.GestionDotaciones/DAPRE/Belen de los Andaquies/IngresoInventario/f1.p7.sa_formato_plan_distribucion_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones\2018\DAPRE\EnviosDotacion\Belen de los Andaquies\Alistamiento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\5.GestionDotaciones\DAPRE\Belen de los Andaquies\IngresoInventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB52D92-D8AE-4E3D-BA3B-2F9C6CBD20D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2A0668-6D3F-498E-9DA4-4A76B330297F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="94">
   <si>
     <t>Punto de Entrega</t>
   </si>
@@ -152,9 +152,6 @@
     <t>CAQUETÁ</t>
   </si>
   <si>
-    <t>4 a 8 de febrero 2019</t>
-  </si>
-  <si>
     <t>ANIMALES PARA ENHEBRAR</t>
   </si>
   <si>
@@ -375,6 +372,12 @@
   </si>
   <si>
     <t>TOTAL URANIA</t>
+  </si>
+  <si>
+    <t>Carrera 5 No 6-72, Belén de los Andaquies (Caquetá)</t>
+  </si>
+  <si>
+    <t>Febrero 2019</t>
   </si>
 </sst>
 </file>
@@ -661,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -711,68 +714,71 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,8 +1200,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,104 +1217,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="17" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="21">
+      <c r="G1" s="37">
         <v>43350</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="17" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1333,16 +1339,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
@@ -1355,16 +1363,18 @@
         <v>72212.008400000006</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
+      <c r="B13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="3">
         <v>8</v>
@@ -1377,16 +1387,18 @@
         <v>544944.03039999993</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
+      <c r="B14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3">
         <v>9</v>
@@ -1399,16 +1411,18 @@
         <v>992069.97750000004</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
+      <c r="B15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
@@ -1421,16 +1435,18 @@
         <v>146383.9944</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
+      <c r="B16" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="3">
         <v>4</v>
@@ -1443,16 +1459,18 @@
         <v>111163.99279999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
+      <c r="B17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1465,16 +1483,18 @@
         <v>468648.00149999995</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+      <c r="B18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
@@ -1491,12 +1511,14 @@
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>18</v>
+      <c r="B19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -1513,12 +1535,14 @@
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>18</v>
+      <c r="B20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1531,16 +1555,18 @@
         <v>7570.9942000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -1553,16 +1579,18 @@
         <v>49550.005400000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>18</v>
+      <c r="B22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1575,16 +1603,18 @@
         <v>22758.999899999999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>18</v>
+      <c r="B23" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="3">
         <v>8</v>
@@ -1597,16 +1627,18 @@
         <v>61167.999199999998</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>18</v>
+      <c r="B24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="3">
         <v>8</v>
@@ -1619,16 +1651,18 @@
         <v>37072.022400000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>18</v>
+      <c r="B25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="3">
         <v>8</v>
@@ -1641,16 +1675,18 @@
         <v>164864.02800000002</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>18</v>
+      <c r="B26" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="3">
         <v>8</v>
@@ -1663,16 +1699,18 @@
         <v>45696</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>18</v>
+      <c r="B27" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="3">
         <v>8</v>
@@ -1685,16 +1723,18 @@
         <v>138871.9528</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>18</v>
+      <c r="B28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
@@ -1707,16 +1747,18 @@
         <v>23366.006999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>18</v>
+      <c r="B29" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="3">
         <v>8</v>
@@ -1729,16 +1771,18 @@
         <v>41304.0432</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
-        <v>18</v>
+      <c r="B30" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="3">
         <v>8</v>
@@ -1751,16 +1795,18 @@
         <v>256784.00719999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
-        <v>18</v>
+      <c r="B31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="3">
         <v>4</v>
@@ -1775,7 +1821,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1810,16 +1856,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>18</v>
+      <c r="B34" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" s="3">
         <v>4</v>
@@ -1832,16 +1880,18 @@
         <v>99556.018800000005</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
-        <v>18</v>
+      <c r="B35" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" s="3">
         <v>5</v>
@@ -1854,16 +1904,18 @@
         <v>80184.996499999994</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>18</v>
+      <c r="B36" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E36" s="3">
         <v>4</v>
@@ -1880,12 +1932,14 @@
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>18</v>
+      <c r="B37" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E37" s="3">
         <v>4</v>
@@ -1898,16 +1952,18 @@
         <v>137339.9944</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>18</v>
+      <c r="B38" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" s="3">
         <v>9</v>
@@ -1920,16 +1976,18 @@
         <v>138545.9523</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
-        <v>18</v>
+      <c r="B39" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" s="3">
         <v>9</v>
@@ -1942,16 +2000,18 @@
         <v>309572.97840000002</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
-        <v>18</v>
+      <c r="B40" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="3">
         <v>9</v>
@@ -1968,12 +2028,14 @@
       <c r="A41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
-        <v>18</v>
+      <c r="B41" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
@@ -1986,16 +2048,18 @@
         <v>100732.0006</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>18</v>
+      <c r="B42" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
@@ -2008,16 +2072,18 @@
         <v>127806.9996</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
-        <v>18</v>
+      <c r="B43" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E43" s="3">
         <v>1</v>
@@ -2032,7 +2098,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2067,16 +2133,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
-        <v>18</v>
+      <c r="B46" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E46" s="3">
         <v>9</v>
@@ -2089,16 +2157,18 @@
         <v>226565.98019999999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
-        <v>18</v>
+      <c r="B47" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="3">
         <v>4</v>
@@ -2111,16 +2181,18 @@
         <v>471647.97960000002</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3" t="s">
-        <v>18</v>
+      <c r="B48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="3">
         <v>6</v>
@@ -2133,16 +2205,18 @@
         <v>143735.98259999999</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
-        <v>18</v>
+      <c r="B49" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
@@ -2155,16 +2229,18 @@
         <v>854800.00269999995</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3" t="s">
-        <v>18</v>
+      <c r="B50" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
@@ -2177,16 +2253,18 @@
         <v>83168.0052</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
-        <v>18</v>
+      <c r="B51" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
@@ -2201,7 +2279,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2236,16 +2314,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
-        <v>18</v>
+      <c r="B54" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -2260,7 +2340,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -2295,16 +2375,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
-        <v>18</v>
+      <c r="B57" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -2319,7 +2401,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -2358,12 +2440,14 @@
       <c r="A60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3" t="s">
-        <v>18</v>
+      <c r="B60" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E60" s="3">
         <v>9</v>
@@ -2376,16 +2460,18 @@
         <v>195245.97750000001</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3" t="s">
-        <v>18</v>
+      <c r="B61" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E61" s="3">
         <v>5</v>
@@ -2398,16 +2484,18 @@
         <v>298325.027</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3" t="s">
-        <v>18</v>
+      <c r="B62" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -2420,16 +2508,18 @@
         <v>2313600.9988000002</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3" t="s">
-        <v>18</v>
+      <c r="B63" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E63" s="3">
         <v>8</v>
@@ -2444,7 +2534,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -2479,16 +2569,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3" t="s">
-        <v>18</v>
+      <c r="B66" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E66" s="3">
         <v>12</v>
@@ -2503,7 +2595,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -2542,12 +2634,14 @@
       <c r="A69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3" t="s">
-        <v>18</v>
+      <c r="B69" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E69" s="3">
         <v>9</v>
@@ -2562,7 +2656,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -2597,16 +2691,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3" t="s">
-        <v>18</v>
+      <c r="B72" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E72" s="3">
         <v>9</v>
@@ -2623,12 +2719,14 @@
       <c r="A73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3" t="s">
-        <v>18</v>
+      <c r="B73" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E73" s="3">
         <v>4</v>
@@ -2641,16 +2739,18 @@
         <v>201275.98120000001</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3" t="s">
-        <v>18</v>
+      <c r="B74" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E74" s="3">
         <v>4</v>
@@ -2663,16 +2763,18 @@
         <v>1633512.0003999998</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3" t="s">
-        <v>18</v>
+      <c r="B75" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E75" s="3">
         <v>16</v>
@@ -2685,16 +2787,18 @@
         <v>453711.96640000003</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3" t="s">
-        <v>18</v>
+      <c r="B76" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E76" s="3">
         <v>16</v>
@@ -2707,16 +2811,18 @@
         <v>453711.96640000003</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3" t="s">
-        <v>18</v>
+      <c r="B77" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E77" s="3">
         <v>16</v>
@@ -2729,16 +2835,18 @@
         <v>457919.99679999996</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3" t="s">
-        <v>18</v>
+      <c r="B78" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E78" s="3">
         <v>8</v>
@@ -2753,7 +2861,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -2788,16 +2896,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3" t="s">
-        <v>18</v>
+      <c r="B81" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E81" s="3">
         <v>5</v>
@@ -2810,16 +2920,18 @@
         <v>337839.98850000004</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3" t="s">
-        <v>18</v>
+      <c r="B82" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E82" s="3">
         <v>5</v>
@@ -2832,16 +2944,18 @@
         <v>358145.01799999998</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3" t="s">
-        <v>18</v>
+      <c r="B83" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E83" s="3">
         <v>1</v>
@@ -2854,16 +2968,18 @@
         <v>42561.004500000003</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3" t="s">
-        <v>18</v>
+      <c r="B84" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E84" s="3">
         <v>5</v>
@@ -2876,16 +2992,18 @@
         <v>14914.984</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3" t="s">
-        <v>18</v>
+      <c r="B85" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E85" s="3">
         <v>8</v>
@@ -2898,16 +3016,18 @@
         <v>51120.020000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3" t="s">
-        <v>18</v>
+      <c r="B86" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E86" s="3">
         <v>8</v>
@@ -2920,16 +3040,18 @@
         <v>64712.009599999998</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3" t="s">
-        <v>18</v>
+      <c r="B87" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E87" s="3">
         <v>8</v>
@@ -2942,16 +3064,18 @@
         <v>89983.991999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3" t="s">
-        <v>18</v>
+      <c r="B88" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E88" s="3">
         <v>8</v>
@@ -2964,16 +3088,18 @@
         <v>110408.00959999999</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3" t="s">
-        <v>18</v>
+      <c r="B89" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E89" s="3">
         <v>5</v>
@@ -2986,16 +3112,18 @@
         <v>118085.00900000001</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3" t="s">
-        <v>18</v>
+      <c r="B90" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E90" s="3">
         <v>9</v>
@@ -3008,16 +3136,18 @@
         <v>982530.04500000004</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3" t="s">
-        <v>18</v>
+      <c r="B91" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E91" s="3">
         <v>1</v>
@@ -3030,16 +3160,18 @@
         <v>187300.0024</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3" t="s">
-        <v>18</v>
+      <c r="B92" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E92" s="3">
         <v>8</v>
@@ -3054,7 +3186,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -3067,14 +3199,14 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="37"/>
+      <c r="A94" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="33"/>
       <c r="G94" s="10">
         <f>+G32+G44+G52+G55+G58+G64+G67+G70+G79+G93</f>
         <v>23401571.090099998</v>
@@ -3089,45 +3221,39 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="32" t="s">
+    <row r="96" spans="1:7" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="34"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="30"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
     </row>
     <row r="99" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A98:G99"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A96:G96"/>
-    <mergeCell ref="A94:F94"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="F5:G6"/>
@@ -3135,6 +3261,12 @@
     <mergeCell ref="B1:E6"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A98:G99"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A96:G96"/>
+    <mergeCell ref="A94:F94"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.42" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5.GestionDotaciones/DAPRE/Belen de los Andaquies/IngresoInventario/f1.p7.sa_formato_plan_distribucion_v2.xlsx
+++ b/5.GestionDotaciones/DAPRE/Belen de los Andaquies/IngresoInventario/f1.p7.sa_formato_plan_distribucion_v2.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\5.GestionDotaciones\DAPRE\Belen de los Andaquies\IngresoInventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2A0668-6D3F-498E-9DA4-4A76B330297F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9BBCDE-9F4F-497F-9DEE-D94FCC7E3DEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$G$99</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -374,10 +377,10 @@
     <t>TOTAL URANIA</t>
   </si>
   <si>
-    <t>Carrera 5 No 6-72, Belén de los Andaquies (Caquetá)</t>
-  </si>
-  <si>
     <t>Febrero 2019</t>
+  </si>
+  <si>
+    <t>Calle 7 No. 5-33,  Barrio Cincuentenario, Belén de los Andaquíes</t>
   </si>
 </sst>
 </file>
@@ -714,12 +717,27 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -764,21 +782,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,11 +1200,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,104 +1222,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="34" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="37">
+      <c r="G1" s="22">
         <v>43350</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="34" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="35" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1339,15 +1344,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>18</v>
@@ -1363,15 +1368,15 @@
         <v>72212.008400000006</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>19</v>
@@ -1387,15 +1392,15 @@
         <v>544944.03039999993</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>20</v>
@@ -1411,15 +1416,15 @@
         <v>992069.97750000004</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>21</v>
@@ -1435,15 +1440,15 @@
         <v>146383.9944</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>22</v>
@@ -1459,15 +1464,15 @@
         <v>111163.99279999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -1483,15 +1488,15 @@
         <v>468648.00149999995</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>24</v>
@@ -1507,15 +1512,15 @@
         <v>118132.01400000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>25</v>
@@ -1531,15 +1536,15 @@
         <v>32559.994599999998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>26</v>
@@ -1555,15 +1560,15 @@
         <v>7570.9942000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>27</v>
@@ -1579,15 +1584,15 @@
         <v>49550.005400000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>28</v>
@@ -1603,15 +1608,15 @@
         <v>22758.999899999999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>29</v>
@@ -1627,15 +1632,15 @@
         <v>61167.999199999998</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>30</v>
@@ -1651,15 +1656,15 @@
         <v>37072.022400000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>31</v>
@@ -1675,15 +1680,15 @@
         <v>164864.02800000002</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>32</v>
@@ -1699,15 +1704,15 @@
         <v>45696</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>33</v>
@@ -1723,15 +1728,15 @@
         <v>138871.9528</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>34</v>
@@ -1747,15 +1752,15 @@
         <v>23366.006999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>35</v>
@@ -1771,15 +1776,15 @@
         <v>41304.0432</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>36</v>
@@ -1795,15 +1800,15 @@
         <v>256784.00719999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>37</v>
@@ -1856,15 +1861,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>39</v>
@@ -1880,15 +1885,15 @@
         <v>99556.018800000005</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>40</v>
@@ -1904,15 +1909,15 @@
         <v>80184.996499999994</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>41</v>
@@ -1933,10 +1938,10 @@
         <v>17</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>42</v>
@@ -1952,15 +1957,15 @@
         <v>137339.9944</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>43</v>
@@ -1976,15 +1981,15 @@
         <v>138545.9523</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>44</v>
@@ -2000,15 +2005,15 @@
         <v>309572.97840000002</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>45</v>
@@ -2024,15 +2029,15 @@
         <v>172332.03960000002</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>46</v>
@@ -2048,15 +2053,15 @@
         <v>100732.0006</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>47</v>
@@ -2072,15 +2077,15 @@
         <v>127806.9996</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>48</v>
@@ -2133,15 +2138,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>50</v>
@@ -2157,15 +2162,15 @@
         <v>226565.98019999999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>51</v>
@@ -2181,15 +2186,15 @@
         <v>471647.97960000002</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>52</v>
@@ -2205,15 +2210,15 @@
         <v>143735.98259999999</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>53</v>
@@ -2229,15 +2234,15 @@
         <v>854800.00269999995</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>54</v>
@@ -2253,15 +2258,15 @@
         <v>83168.0052</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>55</v>
@@ -2314,15 +2319,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>57</v>
@@ -2375,15 +2380,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>60</v>
@@ -2436,15 +2441,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>61</v>
@@ -2460,15 +2465,15 @@
         <v>195245.97750000001</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>62</v>
@@ -2484,15 +2489,15 @@
         <v>298325.027</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>63</v>
@@ -2508,15 +2513,15 @@
         <v>2313600.9988000002</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>64</v>
@@ -2569,15 +2574,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>67</v>
@@ -2630,15 +2635,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>69</v>
@@ -2691,15 +2696,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>70</v>
@@ -2715,15 +2720,15 @@
         <v>901538.99009999994</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>71</v>
@@ -2739,15 +2744,15 @@
         <v>201275.98120000001</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>72</v>
@@ -2763,15 +2768,15 @@
         <v>1633512.0003999998</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>73</v>
@@ -2787,15 +2792,15 @@
         <v>453711.96640000003</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>74</v>
@@ -2811,15 +2816,15 @@
         <v>453711.96640000003</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C77" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>75</v>
@@ -2835,15 +2840,15 @@
         <v>457919.99679999996</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C78" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>76</v>
@@ -2896,15 +2901,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>78</v>
@@ -2920,15 +2925,15 @@
         <v>337839.98850000004</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>79</v>
@@ -2944,15 +2949,15 @@
         <v>358145.01799999998</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>80</v>
@@ -2968,15 +2973,15 @@
         <v>42561.004500000003</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C84" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>81</v>
@@ -2992,15 +2997,15 @@
         <v>14914.984</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>82</v>
@@ -3016,15 +3021,15 @@
         <v>51120.020000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C86" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>83</v>
@@ -3040,15 +3045,15 @@
         <v>64712.009599999998</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C87" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>84</v>
@@ -3064,15 +3069,15 @@
         <v>89983.991999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>85</v>
@@ -3088,15 +3093,15 @@
         <v>110408.00959999999</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>86</v>
@@ -3112,15 +3117,15 @@
         <v>118085.00900000001</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C90" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>87</v>
@@ -3136,15 +3141,15 @@
         <v>982530.04500000004</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C91" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>88</v>
@@ -3160,15 +3165,15 @@
         <v>187300.0024</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" s="38" t="s">
-        <v>93</v>
+        <v>93</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>89</v>
@@ -3199,14 +3204,14 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="33"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="38"/>
       <c r="G94" s="10">
         <f>+G32+G44+G52+G55+G58+G64+G67+G70+G79+G93</f>
         <v>23401571.090099998</v>
@@ -3222,38 +3227,44 @@
       <c r="G95" s="4"/>
     </row>
     <row r="96" spans="1:7" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="30"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="35"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="17" t="s">
+      <c r="A98" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
     </row>
     <row r="99" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="18"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A98:G99"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A96:G96"/>
+    <mergeCell ref="A94:F94"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="F5:G6"/>
@@ -3261,19 +3272,20 @@
     <mergeCell ref="B1:E6"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A98:G99"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A96:G96"/>
-    <mergeCell ref="A94:F94"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.42" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0.31496062992125984"/>
+  <pageSetup scale="85" fitToHeight="6" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;RF1 PR1 MPA1 P5 Versión 1.0</oddFooter>
   </headerFooter>
+  <rowBreaks count="5" manualBreakCount="5">
+    <brk id="20" max="6" man="1"/>
+    <brk id="32" max="6" man="1"/>
+    <brk id="44" max="6" man="1"/>
+    <brk id="64" max="6" man="1"/>
+    <brk id="84" max="6" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>